--- a/biology/Zoologie/Bethylidae/Bethylidae.xlsx
+++ b/biology/Zoologie/Bethylidae/Bethylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bethylidae sont une famille d'insectes hyménoptères.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Caractères généraux de la famille
-La taille est petite à moyenne (0,9 à 30mm). L'aspect général est noir ou brun noir, mais certaines espèces présentent des parties rouges sur la tête et l'abdomen ou encore le corps entièrement brun clair. Ils ressemblent superficiellement à des fourmis.
+          <t>Caractères généraux de la famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille est petite à moyenne (0,9 à 30mm). L'aspect général est noir ou brun noir, mais certaines espèces présentent des parties rouges sur la tête et l'abdomen ou encore le corps entièrement brun clair. Ils ressemblent superficiellement à des fourmis.
 Les ailes sont parfois absentes ou bien plutôt courtes à nervation réduite, avec lobe caractéristique sur la paire postérieure.
 La tête est prognathe (allongée et dans le prolongement du corps).
 Les antennes ont 12 ou 13 articles .
@@ -524,8 +541,43 @@
 Tête prognathe, allongée, les antennes insérées très proche de la bouche.
 Forme globale aplatie.
 En comptant les espèces fossiles 2920 espèces ont été décrites dans 96 genres différents, répartis 8 sous-familles dont 3 fossiles.
-Caractères des sous-familles
-Bethylinae :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bethylidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bethylidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractères des sous-familles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bethylinae :
 Nervation alaire présente.
 Front avec une carène longitudinale médiane.
 Mesitiinae :
@@ -540,9 +592,43 @@
 Scleroderminae :
 Femelle généralement aptère.
 Généralement pas d'ocelles visibles.
-Tête souvent très aplatie.
-Phylogénie
-Les 8 sous-familles ci-décrites expriment le consensus actuel selon Celso O. Azevedo en 2018 :
+Tête souvent très aplatie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bethylidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bethylidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les 8 sous-familles ci-décrites expriment le consensus actuel selon Celso O. Azevedo en 2018 :
 Bethylidae
 Bethylinae Haliday, 1839
 Pristocerinae Mocsary 1881
@@ -555,31 +641,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bethylidae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bethylidae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille particulièrement abondante sous les Tropiques.
 Ce sont des parasites de Lépidoptères (principalement Microlepidoptera) et de Coléoptères, qu'ils peuvent attaquer sous forme larvaire ou imaginale selon les espèces. La femelle pique sa proie, seule ou en groupe, entrainant sa paralysie généralement définitive. Puis, les œufs sont pondus sur l'insecte paralysé et se développent à ses dépens. Une espèce, Cephalonomia hyalinipennis est citée comme parasitoïde d'autres espèces de Bethylidae. 
@@ -588,33 +676,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Bethylidae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bethylidae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des genres et sous-familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (31 mai 2022)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (31 mai 2022) :
 sous-famille Bethylinae Halliday, 1839
 tribu Bethylini
 genre Anoxus Thomson, 1862
@@ -720,7 +810,7 @@
 genre Psilobethylus Kieffer, 1906
 genre Rhabdepyris Kieffer, 1904
 genre Sulcomesitius Moczar, 1970
-Selon NCBI  (31 mai 2022)[2] :
+Selon NCBI  (31 mai 2022) :
 sous-famille Bethylinae
 genre Bethylus
 genre Eupsenella
@@ -775,31 +865,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bethylidae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bethylidae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Lutte biologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">À Madagascar fut introduit en 1973 en faible nombre Goniozus indicus pour lutter contre le borer blanc du riz Maliarpha separatella mais cette tentative a semble-t-il échoué. Cette espèce a été par contre ("re")-découverte en 1990 comme étant en fait indigène à Madagascar où elle parasite naturellement le borer blanc, essentiellement sur les régions côtières et a pu faire l'objet d'un élevage et de lâchers sur la région rizicole de l'Alaotra.
 </t>
